--- a/САВР/Лабораторные/lab4/Lab4_Var№5_Кендысь.xlsx
+++ b/САВР/Лабораторные/lab4/Lab4_Var№5_Кендысь.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\studies\САВР\Лабораторные\lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61B1979-BDE8-4115-916B-348DAF60FE7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3F535D-F603-4C8A-BD44-AAD5B1209D2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="108">
   <si>
     <t>Год</t>
   </si>
@@ -1454,43 +1454,85 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>σ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>y</t>
-    </r>
-  </si>
-  <si>
     <t>F-статистика</t>
   </si>
   <si>
-    <t>Число тепеней свободы df</t>
-  </si>
-  <si>
     <t>Регрессионная сумма квадратов</t>
   </si>
   <si>
     <t>Остаточная сумма квадратов</t>
   </si>
   <si>
-    <t>Значимый</t>
+    <t>Число cтепеней свободы df</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Нулевая гипотеза отвергается, т.е. величина </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> значима (уровень значимости 0.02).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Нулевая гипотеза отвергается, т.е. величина </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> значима (уровень значимости 0.02).</t>
+    </r>
+  </si>
+  <si>
+    <t>Стандартная ошибка для оценки y</t>
+  </si>
+  <si>
+    <t>Оба коэффициента регрессии оказались значимыми. Соответственно, можно надеяться на адекватную модель. Из графика связи и линии регрессии также видно, что полученная модель неплохо описывает данные, хотя и некоторые значения лежат относительно далеко от линии. Далее требуется оценить адекватность модели.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1577,6 +1619,14 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1744,7 +1794,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1785,6 +1835,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1812,83 +1934,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2251,7 +2314,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Report, lab4'!$J$39:$J$40</c:f>
+              <c:f>'Report, lab4'!$J$35:$J$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2266,7 +2329,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Report, lab4'!$K$39:$K$40</c:f>
+              <c:f>'Report, lab4'!$K$35:$K$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2560,15 +2623,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2859,10 +2922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R40"/>
+  <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2872,7 +2935,7 @@
     <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" customWidth="1"/>
     <col min="5" max="5" width="7.88671875" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" customWidth="1"/>
     <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.88671875" customWidth="1"/>
     <col min="9" max="9" width="9.6640625" customWidth="1"/>
@@ -2882,92 +2945,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="O1" s="41" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="O1" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="P1" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="Q1" s="31" t="s">
+      <c r="Q1" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="R1" s="45"/>
+      <c r="R1" s="23"/>
     </row>
     <row r="2" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="1">
         <f>'lab2 results'!E50</f>
         <v>0.55295210126788286</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
       <c r="G2" s="1">
         <f>'lab2 results'!F50</f>
         <v>0.5263960186438722</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29">
+      <c r="I2" s="30"/>
+      <c r="J2" s="30">
         <f>SUMPRODUCT('lab2 results'!C3:C39-'lab2 results'!E45, 'lab2 results'!D3:D39-'lab2 results'!F45)/'lab2 results'!L40</f>
         <v>0.17327976625273925</v>
       </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="45"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="23"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="1">
         <f>STDEVP('lab2 results'!C3:C39)</f>
         <v>0.55295210126788263</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="1">
         <f>STDEVP('lab2 results'!D3:D39)</f>
         <v>0.5263960186438722</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="29">
+      <c r="I3" s="21"/>
+      <c r="J3" s="30">
         <f>COVAR('lab2 results'!C3:C39, 'lab2 results'!D3:D39)</f>
         <v>0.17327976625273925</v>
       </c>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
       <c r="O3" s="1">
         <v>7.9</v>
       </c>
@@ -2980,20 +3043,20 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
       <c r="O4" s="1">
         <v>8.1999999999999993</v>
       </c>
@@ -3001,29 +3064,29 @@
         <v>8.4</v>
       </c>
       <c r="Q4" s="1">
-        <f t="shared" ref="Q4:R39" si="0">$C$11*O4+$C$12</f>
+        <f t="shared" ref="Q4:Q39" si="0">$C$11*O4+$C$12</f>
         <v>8.1800133785656257</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="31" t="s">
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
       <c r="O5" s="1">
         <v>8.3000000000000007</v>
       </c>
@@ -3036,25 +3099,25 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="1">
         <f>J2/(C2*G2)</f>
         <v>0.59531626016584871</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="30">
         <f>SQRT((1-C6^2)/('lab2 results'!L40-2))</f>
         <v>0.13581484774523497</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="34">
         <f>C6/E6</f>
         <v>4.3832929171526107</v>
       </c>
@@ -3064,11 +3127,11 @@
       <c r="I6" s="13">
         <v>2.44</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
       <c r="O6" s="1">
         <v>8.4</v>
       </c>
@@ -3081,18 +3144,18 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="31"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="1">
         <f>PEARSON('lab2 results'!C3:C39, 'lab2 results'!D3:D39)</f>
         <v>0.59531626016584893</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="32"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="34"/>
       <c r="H7" s="2" t="s">
         <v>68</v>
       </c>
@@ -3100,9 +3163,9 @@
         <f>TINV(0.02, 35)</f>
         <v>2.4377225471437423</v>
       </c>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
       <c r="O7" s="1">
         <v>8.4</v>
       </c>
@@ -3115,10 +3178,10 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="29"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="1">
         <f>(EXP(2*E8)-1)/(EXP(2*E8)+1)</f>
         <v>0.2786971970352396</v>
@@ -3130,23 +3193,23 @@
         <f>0.5*LN((1+C6)/(1-C6))-(I8/SQRT('lab2 results'!L40-3))</f>
         <v>0.28626899913994547</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="34">
         <v>0.98</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I8" s="34">
         <v>2.33</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
       <c r="O8" s="1">
         <v>8.1999999999999993</v>
       </c>
@@ -3159,10 +3222,10 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="29"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="1">
         <f>(EXP(2*E9)-1)/(EXP(2*E9)+1)</f>
         <v>0.79521231427662864</v>
@@ -3174,13 +3237,13 @@
         <f>0.5*LN((1+C6)/(1-C6))+(I8/SQRT('lab2 results'!L40-3))</f>
         <v>1.0854524059040367</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
       <c r="O9" s="1">
         <v>8.1999999999999993</v>
       </c>
@@ -3193,25 +3256,25 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="48">
+      <c r="B10" s="28"/>
+      <c r="C10" s="20">
         <f>G2^2*(1-C6^2)</f>
         <v>0.17889068962889984</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="49" t="s">
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
       <c r="O10" s="1">
         <v>9</v>
       </c>
@@ -3223,26 +3286,26 @@
         <v>8.6333938554159282</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="47" t="s">
+    <row r="11" spans="1:18" ht="31.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48">
+      <c r="B11" s="28"/>
+      <c r="C11" s="20">
         <f>J2/C2^2</f>
         <v>0.56672559606287909</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="20">
         <f>SQRT(C10)/(C2*SQRT('lab2 results'!L40-2))</f>
         <v>0.12929220263724112</v>
       </c>
-      <c r="F11" s="48" t="s">
+      <c r="F11" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="G11" s="48">
+      <c r="G11" s="20">
         <f>C11/E11</f>
         <v>4.3832929171526107</v>
       </c>
@@ -3252,11 +3315,11 @@
       <c r="I11" s="17">
         <v>2.44</v>
       </c>
-      <c r="J11" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="K11" s="51"/>
-      <c r="L11" s="52"/>
+      <c r="J11" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
       <c r="O11" s="1">
         <v>9</v>
       </c>
@@ -3268,26 +3331,26 @@
         <v>8.6333938554159282</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A12" s="47" t="s">
+    <row r="12" spans="1:18" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="48">
+      <c r="B12" s="28"/>
+      <c r="C12" s="20">
         <f>'lab2 results'!F45-'lab2 results'!E45*C11</f>
         <v>3.5328634908500174</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E12" s="20">
         <f>(SQRT(C10)/SQRT('lab2 results'!L40-2))*SQRT(1+('lab2 results'!E45^2/C2^2))</f>
         <v>1.0333193806032008</v>
       </c>
-      <c r="F12" s="48" t="s">
+      <c r="F12" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="48">
+      <c r="G12" s="20">
         <f>C12/E12</f>
         <v>3.4189463172438574</v>
       </c>
@@ -3297,11 +3360,11 @@
       <c r="I12" s="17">
         <v>2.44</v>
       </c>
-      <c r="J12" s="50" t="s">
+      <c r="J12" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="K12" s="51"/>
-      <c r="L12" s="52"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
       <c r="O12" s="1">
         <v>8.6</v>
       </c>
@@ -3313,8 +3376,10 @@
         <v>8.406703616990777</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
+    <row r="13" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="42" t="s">
+        <v>107</v>
+      </c>
       <c r="B13" s="43"/>
       <c r="C13" s="43"/>
       <c r="D13" s="43"/>
@@ -3325,7 +3390,7 @@
       <c r="I13" s="43"/>
       <c r="J13" s="43"/>
       <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
+      <c r="L13" s="44"/>
       <c r="O13" s="1">
         <v>8.8000000000000007</v>
       </c>
@@ -3338,6 +3403,18 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="48"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="50"/>
       <c r="O14" s="1">
         <v>8.5</v>
       </c>
@@ -3350,6 +3427,18 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
       <c r="O15" s="1">
         <v>8.1999999999999993</v>
       </c>
@@ -3362,6 +3451,18 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
       <c r="O16" s="1">
         <v>8.3000000000000007</v>
       </c>
@@ -3373,7 +3474,11 @@
         <v>8.2366859381719131</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="E17" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="41"/>
       <c r="O17" s="1">
         <v>7.8</v>
       </c>
@@ -3385,7 +3490,20 @@
         <v>7.9533231401404745</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D18" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="14">
+        <f t="array" ref="E18:F22">LINEST(P3:P39, O3:O39,TRUE,TRUE)</f>
+        <v>0.56672559606287931</v>
+      </c>
+      <c r="F18" s="14">
+        <v>3.5328634908500156</v>
+      </c>
+      <c r="G18" t="s">
+        <v>86</v>
+      </c>
       <c r="O18" s="1">
         <v>8</v>
       </c>
@@ -3397,7 +3515,19 @@
         <v>8.066668259353051</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D19" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.12929220263724109</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1.0333193806032006</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>89</v>
+      </c>
       <c r="O19" s="1">
         <v>7.7</v>
       </c>
@@ -3409,7 +3539,19 @@
         <v>7.8966505805341862</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" ht="16.8" x14ac:dyDescent="0.35">
+      <c r="D20" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.35440144961785258</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.43487126227258477</v>
+      </c>
+      <c r="G20" s="57" t="s">
+        <v>106</v>
+      </c>
       <c r="O20" s="1">
         <v>7.8</v>
       </c>
@@ -3421,7 +3563,19 @@
         <v>7.9533231401404745</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D21" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="1">
+        <v>19.213256797560252</v>
+      </c>
+      <c r="F21" s="1">
+        <v>35</v>
+      </c>
+      <c r="G21" t="s">
+        <v>103</v>
+      </c>
       <c r="O21" s="1">
         <v>7.2</v>
       </c>
@@ -3433,11 +3587,21 @@
         <v>7.6132877825027467</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22" s="31"/>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3.6334769161631408</v>
+      </c>
+      <c r="F22" s="1">
+        <v>6.6189555162692928</v>
+      </c>
+      <c r="G22" t="s">
+        <v>102</v>
+      </c>
       <c r="O22" s="1">
         <v>7.2</v>
       </c>
@@ -3449,20 +3613,7 @@
         <v>7.6132877825027467</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="14">
-        <f t="array" ref="B23:C27">LINEST(P3:P39, O3:O39,TRUE,TRUE)</f>
-        <v>0.56672559606287931</v>
-      </c>
-      <c r="C23" s="14">
-        <v>3.5328634908500156</v>
-      </c>
-      <c r="D23" t="s">
-        <v>86</v>
-      </c>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="O23" s="1">
         <v>7.3</v>
       </c>
@@ -3474,19 +3625,7 @@
         <v>7.669960342109035</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="1">
-        <v>0.12929220263724109</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1.0333193806032006</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>89</v>
-      </c>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="O24" s="1">
         <v>7.5</v>
       </c>
@@ -3498,19 +3637,7 @@
         <v>7.7833054613216106</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="16.8" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" s="1">
-        <v>0.35440144961785258</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0.43487126227258477</v>
-      </c>
-      <c r="D25" s="42" t="s">
-        <v>100</v>
-      </c>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="O25" s="1">
         <v>7.9</v>
       </c>
@@ -3522,19 +3649,7 @@
         <v>8.0099956997467636</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>101</v>
-      </c>
-      <c r="B26" s="1">
-        <v>19.213256797560252</v>
-      </c>
-      <c r="C26" s="1">
-        <v>35</v>
-      </c>
-      <c r="D26" t="s">
-        <v>102</v>
-      </c>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
       <c r="O26" s="1">
         <v>7.8</v>
       </c>
@@ -3546,19 +3661,7 @@
         <v>7.9533231401404745</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>103</v>
-      </c>
-      <c r="B27" s="1">
-        <v>3.6334769161631408</v>
-      </c>
-      <c r="C27" s="1">
-        <v>6.6189555162692928</v>
-      </c>
-      <c r="D27" t="s">
-        <v>104</v>
-      </c>
+    <row r="27" spans="2:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O27" s="1">
         <v>6.3</v>
       </c>
@@ -3570,7 +3673,7 @@
         <v>7.1032347460461551</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="O28" s="1">
         <v>7.9</v>
       </c>
@@ -3582,7 +3685,7 @@
         <v>8.0099956997467636</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="O29" s="1">
         <v>9</v>
       </c>
@@ -3594,7 +3697,7 @@
         <v>8.6333938554159282</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="O30" s="1">
         <v>7.4</v>
       </c>
@@ -3606,7 +3709,7 @@
         <v>7.7266329017153232</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
       <c r="O31" s="1">
         <v>7.9</v>
       </c>
@@ -3618,7 +3721,7 @@
         <v>8.0099956997467636</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
       <c r="O32" s="1">
         <v>8.4</v>
       </c>
@@ -3643,6 +3746,12 @@
       </c>
     </row>
     <row r="34" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J34" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>95</v>
+      </c>
       <c r="O34" s="1">
         <v>7.6</v>
       </c>
@@ -3655,6 +3764,14 @@
       </c>
     </row>
     <row r="35" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J35" s="1">
+        <f>MIN(O3:O39)</f>
+        <v>6.3</v>
+      </c>
+      <c r="K35" s="1">
+        <f>$C$11*J35+$C$12</f>
+        <v>7.1032347460461551</v>
+      </c>
       <c r="O35" s="1">
         <v>7.9</v>
       </c>
@@ -3667,6 +3784,14 @@
       </c>
     </row>
     <row r="36" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J36" s="1">
+        <f>MAX(O3:O39)</f>
+        <v>9</v>
+      </c>
+      <c r="K36" s="1">
+        <f>$C$11*J36+$C$12</f>
+        <v>8.6333938554159282</v>
+      </c>
       <c r="O36" s="1">
         <v>7.6</v>
       </c>
@@ -3691,12 +3816,6 @@
       </c>
     </row>
     <row r="38" spans="10:17" x14ac:dyDescent="0.3">
-      <c r="J38" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="K38" s="15" t="s">
-        <v>95</v>
-      </c>
       <c r="O38" s="1">
         <v>7.9</v>
       </c>
@@ -3709,14 +3828,6 @@
       </c>
     </row>
     <row r="39" spans="10:17" x14ac:dyDescent="0.3">
-      <c r="J39" s="1">
-        <f>MIN(O3:O39)</f>
-        <v>6.3</v>
-      </c>
-      <c r="K39" s="1">
-        <f>$C$11*J39+$C$12</f>
-        <v>7.1032347460461551</v>
-      </c>
       <c r="O39" s="1">
         <v>7.6</v>
       </c>
@@ -3726,24 +3837,37 @@
       <c r="Q39" s="1">
         <f t="shared" si="0"/>
         <v>7.839978020927898</v>
-      </c>
-    </row>
-    <row r="40" spans="10:17" x14ac:dyDescent="0.3">
-      <c r="J40" s="1">
-        <f>MAX(O3:O39)</f>
-        <v>9</v>
-      </c>
-      <c r="K40" s="1">
-        <f>$C$11*J40+$C$12</f>
-        <v>8.6333938554159282</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R3:R39">
     <sortCondition ref="R3"/>
   </sortState>
-  <mergeCells count="38">
-    <mergeCell ref="B22:C22"/>
+  <mergeCells count="39">
+    <mergeCell ref="A13:L14"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J8:L9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="J6:L7"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="Q1:Q2"/>
@@ -3759,28 +3883,6 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J8:L9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="J6:L7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3815,76 +3917,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="38" t="s">
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="31" t="s">
+      <c r="O1" s="40"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="31" t="s">
+      <c r="R1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="31" t="s">
+      <c r="S1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="31" t="s">
+      <c r="T1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="31" t="s">
+      <c r="U1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="31" t="s">
+      <c r="V1" s="21" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="16.8" x14ac:dyDescent="0.35">
-      <c r="A2" s="31"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>20</v>
       </c>
@@ -3903,12 +4005,12 @@
       <c r="P2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -6422,17 +6524,17 @@
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A43" s="34"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
       <c r="E43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
     </row>
     <row r="44" spans="1:22" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
       <c r="D44" s="6" t="s">
         <v>26</v>
       </c>
@@ -6442,43 +6544,43 @@
       <c r="F44" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G44" s="38" t="s">
+      <c r="G44" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="41"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="31" t="s">
+      <c r="M44" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="N44" s="31"/>
-      <c r="O44" s="31"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
     </row>
     <row r="45" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="33" t="s">
+      <c r="A45" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="32">
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="34">
         <f>SUMPRODUCT(K3:K19,H3:H19)/K40</f>
         <v>8.1810810810810803</v>
       </c>
-      <c r="E45" s="32">
+      <c r="E45" s="34">
         <f>SUMPRODUCT(L3:L19,I3:I19)/L40</f>
         <v>7.9729729729729746</v>
       </c>
-      <c r="F45" s="32">
+      <c r="F45" s="34">
         <f>SUMPRODUCT(M3:M22,J3:J22)/M40</f>
         <v>8.0513513513513519</v>
       </c>
-      <c r="G45" s="35" t="s">
+      <c r="G45" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="38"/>
       <c r="L45" s="1"/>
       <c r="M45" s="6" t="s">
         <v>26</v>
@@ -6491,16 +6593,16 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A46" s="33"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="37"/>
+      <c r="A46" s="35"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="38"/>
       <c r="L46" s="9" t="s">
         <v>39</v>
       </c>
@@ -6515,29 +6617,29 @@
       </c>
     </row>
     <row r="47" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="33" t="s">
+      <c r="A47" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="33"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="32">
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="34">
         <f>SUMPRODUCT(H3:H19-D45, H3:H19-D45, K3:K19)/K40</f>
         <v>0.43937180423666905</v>
       </c>
-      <c r="E47" s="32">
+      <c r="E47" s="34">
         <f>SUMPRODUCT(I3:I19-E45, I3:I19-E45, L3:L19)/L40</f>
         <v>0.30575602629656695</v>
       </c>
-      <c r="F47" s="32">
+      <c r="F47" s="34">
         <f>SUMPRODUCT(J3:J22-F45, J3:J22-F45, M3:M22)/M40</f>
         <v>0.2770927684441199</v>
       </c>
-      <c r="G47" s="35" t="s">
+      <c r="G47" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="38"/>
       <c r="L47" s="9" t="s">
         <v>40</v>
       </c>
@@ -6552,16 +6654,16 @@
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A48" s="33"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="37"/>
+      <c r="A48" s="35"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="38"/>
       <c r="L48" s="9" t="s">
         <v>41</v>
       </c>
@@ -6576,11 +6678,11 @@
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A49" s="33" t="s">
+      <c r="A49" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
       <c r="D49" s="11">
         <f>SUMPRODUCT(H3:H19-D45, H3:H19-D45, K3:K19)/(K40-1)</f>
         <v>0.45157657657657652</v>
@@ -6593,10 +6695,10 @@
         <f>SUMPRODUCT(J3:J22-F45, J3:J22-F45, M3:M22)/(M40-1)</f>
         <v>0.28478978978978986</v>
       </c>
-      <c r="G49" s="35"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="37"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="38"/>
       <c r="L49" s="9" t="s">
         <v>42</v>
       </c>
@@ -6611,11 +6713,11 @@
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A50" s="33" t="s">
+      <c r="A50" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
       <c r="D50" s="10">
         <f>SQRT(D47)</f>
         <v>0.6628512685638227</v>
@@ -6628,10 +6730,10 @@
         <f>SQRT(F47)</f>
         <v>0.5263960186438722</v>
       </c>
-      <c r="G50" s="35"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="37"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="38"/>
       <c r="L50" s="9" t="s">
         <v>43</v>
       </c>
@@ -6646,29 +6748,29 @@
       </c>
     </row>
     <row r="51" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="33" t="s">
+      <c r="A51" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="32">
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="34">
         <f>D50/D45</f>
         <v>8.1022454366902683E-2</v>
       </c>
-      <c r="E51" s="32">
+      <c r="E51" s="34">
         <f>E50/E45</f>
         <v>6.935331439631072E-2</v>
       </c>
-      <c r="F51" s="32">
+      <c r="F51" s="34">
         <f>F50/F45</f>
         <v>6.5379834474062676E-2</v>
       </c>
-      <c r="G51" s="35" t="s">
+      <c r="G51" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="H51" s="36"/>
-      <c r="I51" s="36"/>
-      <c r="J51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="38"/>
       <c r="L51" s="9" t="s">
         <v>44</v>
       </c>
@@ -6683,16 +6785,16 @@
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A52" s="33"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="37"/>
+      <c r="A52" s="35"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="38"/>
       <c r="L52" s="9" t="s">
         <v>45</v>
       </c>
@@ -6707,16 +6809,16 @@
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53" s="33"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="37"/>
+      <c r="A53" s="35"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="38"/>
       <c r="L53" s="9" t="s">
         <v>46</v>
       </c>
@@ -6731,29 +6833,29 @@
       </c>
     </row>
     <row r="54" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="33" t="s">
+      <c r="A54" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="32">
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="34">
         <f>Q40/(K40*D50^3)</f>
         <v>-1.2619066541331863</v>
       </c>
-      <c r="E54" s="32">
+      <c r="E54" s="34">
         <f>R40/(L40*E50^3)</f>
         <v>-0.3056496884394217</v>
       </c>
-      <c r="F54" s="32">
+      <c r="F54" s="34">
         <f>S40/(M40*F50^3)</f>
         <v>0.14240945598119886</v>
       </c>
-      <c r="G54" s="35" t="s">
+      <c r="G54" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="37"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="38"/>
       <c r="L54" s="9" t="s">
         <v>47</v>
       </c>
@@ -6768,16 +6870,16 @@
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A55" s="33"/>
-      <c r="B55" s="33"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="37"/>
+      <c r="A55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="38"/>
       <c r="L55" s="9" t="s">
         <v>48</v>
       </c>
@@ -6792,16 +6894,16 @@
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A56" s="33"/>
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
-      <c r="J56" s="37"/>
+      <c r="A56" s="35"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="38"/>
       <c r="L56" s="9" t="s">
         <v>49</v>
       </c>
@@ -6816,16 +6918,16 @@
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A57" s="33"/>
-      <c r="B57" s="33"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
-      <c r="J57" s="37"/>
+      <c r="A57" s="35"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="38"/>
       <c r="L57" s="9" t="s">
         <v>50</v>
       </c>
@@ -6840,29 +6942,29 @@
       </c>
     </row>
     <row r="58" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="33" t="s">
+      <c r="A58" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B58" s="33"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="32">
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="34">
         <f>T40/(K40*D47^2)-3</f>
         <v>1.4708680584490494</v>
       </c>
-      <c r="E58" s="32">
+      <c r="E58" s="34">
         <f>U40/(L40*E47^2)-3</f>
         <v>0.80811175067843388</v>
       </c>
-      <c r="F58" s="32">
+      <c r="F58" s="34">
         <f>V40/(M40*F47^2)-3</f>
         <v>-0.77126245071575994</v>
       </c>
-      <c r="G58" s="35" t="s">
+      <c r="G58" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
-      <c r="J58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="38"/>
       <c r="L58" s="9" t="s">
         <v>51</v>
       </c>
@@ -6877,218 +6979,218 @@
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A59" s="33"/>
-      <c r="B59" s="33"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="32"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="37"/>
+      <c r="A59" s="35"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="38"/>
     </row>
     <row r="60" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="33"/>
-      <c r="B60" s="33"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="32"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="37"/>
-      <c r="L60" s="18" t="s">
+      <c r="A60" s="35"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="38"/>
+      <c r="L60" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="M60" s="19"/>
-      <c r="N60" s="19"/>
-      <c r="O60" s="20"/>
+      <c r="M60" s="43"/>
+      <c r="N60" s="43"/>
+      <c r="O60" s="44"/>
       <c r="P60" s="12"/>
       <c r="Q60" s="12"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A61" s="33"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
-      <c r="J61" s="37"/>
-      <c r="L61" s="21"/>
-      <c r="M61" s="22"/>
-      <c r="N61" s="22"/>
-      <c r="O61" s="23"/>
+      <c r="A61" s="35"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="38"/>
+      <c r="L61" s="45"/>
+      <c r="M61" s="46"/>
+      <c r="N61" s="46"/>
+      <c r="O61" s="47"/>
       <c r="P61" s="12"/>
       <c r="Q61" s="12"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A62" s="33"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="37"/>
-      <c r="L62" s="21"/>
-      <c r="M62" s="22"/>
-      <c r="N62" s="22"/>
-      <c r="O62" s="23"/>
+      <c r="A62" s="35"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="38"/>
+      <c r="L62" s="45"/>
+      <c r="M62" s="46"/>
+      <c r="N62" s="46"/>
+      <c r="O62" s="47"/>
       <c r="P62" s="12"/>
       <c r="Q62" s="12"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A63" s="33"/>
-      <c r="B63" s="33"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="36"/>
-      <c r="I63" s="36"/>
-      <c r="J63" s="37"/>
-      <c r="L63" s="21"/>
-      <c r="M63" s="22"/>
-      <c r="N63" s="22"/>
-      <c r="O63" s="23"/>
+      <c r="A63" s="35"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="37"/>
+      <c r="J63" s="38"/>
+      <c r="L63" s="45"/>
+      <c r="M63" s="46"/>
+      <c r="N63" s="46"/>
+      <c r="O63" s="47"/>
       <c r="P63" s="12"/>
       <c r="Q63" s="12"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A64" s="33"/>
-      <c r="B64" s="33"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="36"/>
-      <c r="J64" s="37"/>
-      <c r="L64" s="21"/>
-      <c r="M64" s="22"/>
-      <c r="N64" s="22"/>
-      <c r="O64" s="23"/>
+      <c r="A64" s="35"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="37"/>
+      <c r="J64" s="38"/>
+      <c r="L64" s="45"/>
+      <c r="M64" s="46"/>
+      <c r="N64" s="46"/>
+      <c r="O64" s="47"/>
       <c r="P64" s="12"/>
       <c r="Q64" s="12"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A65" s="33" t="s">
+      <c r="A65" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B65" s="33"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="32">
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="34">
         <f>H12</f>
         <v>8.3000000000000007</v>
       </c>
-      <c r="E65" s="32">
+      <c r="E65" s="34">
         <f>I11</f>
         <v>7.9</v>
       </c>
-      <c r="F65" s="32" t="str">
+      <c r="F65" s="34" t="str">
         <f>J11&amp;", "&amp;J13&amp;", "&amp;J17</f>
         <v>7.9, 8.1, 8.5</v>
       </c>
-      <c r="G65" s="35" t="s">
+      <c r="G65" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="H65" s="36"/>
-      <c r="I65" s="36"/>
-      <c r="J65" s="37"/>
-      <c r="L65" s="21"/>
-      <c r="M65" s="22"/>
-      <c r="N65" s="22"/>
-      <c r="O65" s="23"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="38"/>
+      <c r="L65" s="45"/>
+      <c r="M65" s="46"/>
+      <c r="N65" s="46"/>
+      <c r="O65" s="47"/>
       <c r="P65" s="12"/>
       <c r="Q65" s="12"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A66" s="33"/>
-      <c r="B66" s="33"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="32"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="37"/>
-      <c r="L66" s="24"/>
-      <c r="M66" s="25"/>
-      <c r="N66" s="25"/>
-      <c r="O66" s="26"/>
+      <c r="A66" s="35"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="38"/>
+      <c r="L66" s="48"/>
+      <c r="M66" s="49"/>
+      <c r="N66" s="49"/>
+      <c r="O66" s="50"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A67" s="33"/>
-      <c r="B67" s="33"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="32"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="36"/>
-      <c r="I67" s="36"/>
-      <c r="J67" s="37"/>
+      <c r="A67" s="35"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="38"/>
       <c r="L67" s="12"/>
       <c r="M67" s="12"/>
       <c r="N67" s="12"/>
       <c r="O67" s="12"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A68" s="33"/>
-      <c r="B68" s="33"/>
-      <c r="C68" s="33"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="32"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="36"/>
-      <c r="I68" s="36"/>
-      <c r="J68" s="37"/>
+      <c r="A68" s="35"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="38"/>
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A69" s="33"/>
-      <c r="B69" s="33"/>
-      <c r="C69" s="33"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="32"/>
-      <c r="F69" s="32"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="36"/>
-      <c r="I69" s="36"/>
-      <c r="J69" s="37"/>
+      <c r="A69" s="35"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="38"/>
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A70" s="33"/>
-      <c r="B70" s="33"/>
-      <c r="C70" s="33"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="32"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="36"/>
-      <c r="I70" s="36"/>
-      <c r="J70" s="37"/>
+      <c r="A70" s="35"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="38"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A71" s="33" t="s">
+      <c r="A71" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B71" s="33"/>
-      <c r="C71" s="33"/>
+      <c r="B71" s="35"/>
+      <c r="C71" s="35"/>
       <c r="D71" s="10">
         <f>E21</f>
         <v>8.3000000000000007</v>
@@ -7101,12 +7203,12 @@
         <f>G21</f>
         <v>8</v>
       </c>
-      <c r="G71" s="35" t="s">
+      <c r="G71" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="H71" s="36"/>
-      <c r="I71" s="36"/>
-      <c r="J71" s="37"/>
+      <c r="H71" s="37"/>
+      <c r="I71" s="37"/>
+      <c r="J71" s="38"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="F73" s="8"/>
@@ -7174,31 +7276,22 @@
     <sortCondition ref="G3"/>
   </sortState>
   <mergeCells count="57">
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="D65:D70"/>
-    <mergeCell ref="E65:E70"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="F65:F70"/>
-    <mergeCell ref="A65:C70"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="D58:D64"/>
-    <mergeCell ref="E58:E64"/>
-    <mergeCell ref="F58:F64"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="A45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="L60:O66"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="G45:J46"/>
+    <mergeCell ref="G47:J50"/>
+    <mergeCell ref="G51:J53"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="G54:J57"/>
+    <mergeCell ref="G58:J64"/>
+    <mergeCell ref="G65:J70"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
     <mergeCell ref="G71:J71"/>
     <mergeCell ref="A51:C53"/>
     <mergeCell ref="A54:C57"/>
@@ -7215,22 +7308,31 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="L60:O66"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="G45:J46"/>
-    <mergeCell ref="G47:J50"/>
-    <mergeCell ref="G51:J53"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="G54:J57"/>
-    <mergeCell ref="G58:J64"/>
-    <mergeCell ref="G65:J70"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="F65:F70"/>
+    <mergeCell ref="A65:C70"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="D58:D64"/>
+    <mergeCell ref="E58:E64"/>
+    <mergeCell ref="F58:F64"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="D65:D70"/>
+    <mergeCell ref="E65:E70"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/САВР/Лабораторные/lab4/Lab4_Var№5_Кендысь.xlsx
+++ b/САВР/Лабораторные/lab4/Lab4_Var№5_Кендысь.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\studies\САВР\Лабораторные\lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3F535D-F603-4C8A-BD44-AAD5B1209D2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6F927D-89DE-446A-87CF-150DA64A02B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="110">
   <si>
     <t>Год</t>
   </si>
@@ -1331,9 +1331,6 @@
     <t>b</t>
   </si>
   <si>
-    <t>Малая дисперсия ошибки.</t>
-  </si>
-  <si>
     <r>
       <t>σ</t>
     </r>
@@ -1525,7 +1522,91 @@
     <t>Стандартная ошибка для оценки y</t>
   </si>
   <si>
-    <t>Оба коэффициента регрессии оказались значимыми. Соответственно, можно надеяться на адекватную модель. Из графика связи и линии регрессии также видно, что полученная модель неплохо описывает данные, хотя и некоторые значения лежат относительно далеко от линии. Далее требуется оценить адекватность модели.</t>
+    <r>
+      <t>0.67 S</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ε</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ε</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; 0.67 S</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Стандартная ошибка превышает допустимую, следовательно модель может быть не очень качественная.</t>
+    </r>
+  </si>
+  <si>
+    <t>Из графика связи и линии регрессии видно, что полученная модель неплохо описывает данные, хотя и некоторые значения лежат относительно далеко от линии (большой разброс значений). Оба коэффициента регрессии оказались значимыми (уровень значимости 0.02), но стандартная ошибка модели (0.42) превышает допустимую (0.35), т.е. модель спорная. Требуются дополнительные исследования для оценки адекватности модели.</t>
   </si>
 </sst>
 </file>
@@ -1794,7 +1875,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1844,11 +1925,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1862,14 +1959,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1877,14 +1974,44 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1898,23 +2025,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1925,33 +2037,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2623,13 +2710,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
+      <xdr:colOff>502920</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:colOff>876300</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
@@ -2925,7 +3012,7 @@
   <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2936,7 +3023,7 @@
     <col min="4" max="4" width="8.6640625" customWidth="1"/>
     <col min="5" max="5" width="7.88671875" customWidth="1"/>
     <col min="6" max="6" width="8.109375" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" customWidth="1"/>
     <col min="8" max="8" width="15.88671875" customWidth="1"/>
     <col min="9" max="9" width="9.6640625" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
@@ -2945,92 +3032,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="O1" s="22" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="O1" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="P1" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="Q1" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="Q1" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="R1" s="23"/>
+      <c r="R1" s="29"/>
     </row>
     <row r="2" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="1">
         <f>'lab2 results'!E50</f>
         <v>0.55295210126788286</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
       <c r="G2" s="1">
         <f>'lab2 results'!F50</f>
         <v>0.5263960186438722</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30">
+      <c r="I2" s="36"/>
+      <c r="J2" s="36">
         <f>SUMPRODUCT('lab2 results'!C3:C39-'lab2 results'!E45, 'lab2 results'!D3:D39-'lab2 results'!F45)/'lab2 results'!L40</f>
         <v>0.17327976625273925</v>
       </c>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="23"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="29"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="1">
         <f>STDEVP('lab2 results'!C3:C39)</f>
         <v>0.55295210126788263</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
       <c r="G3" s="1">
         <f>STDEVP('lab2 results'!D3:D39)</f>
         <v>0.5263960186438722</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="30">
+      <c r="I3" s="28"/>
+      <c r="J3" s="36">
         <f>COVAR('lab2 results'!C3:C39, 'lab2 results'!D3:D39)</f>
         <v>0.17327976625273925</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
       <c r="O3" s="1">
         <v>7.9</v>
       </c>
@@ -3043,20 +3130,20 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
+      <c r="A4" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
       <c r="O4" s="1">
         <v>8.1999999999999993</v>
       </c>
@@ -3069,24 +3156,24 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="21" t="s">
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
       <c r="O5" s="1">
         <v>8.3000000000000007</v>
       </c>
@@ -3099,22 +3186,22 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="1">
         <f>J2/(C2*G2)</f>
         <v>0.59531626016584871</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="36">
         <f>SQRT((1-C6^2)/('lab2 results'!L40-2))</f>
         <v>0.13581484774523497</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="36" t="s">
         <v>75</v>
       </c>
       <c r="G6" s="34">
@@ -3127,11 +3214,11 @@
       <c r="I6" s="13">
         <v>2.44</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
       <c r="O6" s="1">
         <v>8.4</v>
       </c>
@@ -3144,17 +3231,17 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="1">
         <f>PEARSON('lab2 results'!C3:C39, 'lab2 results'!D3:D39)</f>
         <v>0.59531626016584893</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="34"/>
       <c r="H7" s="2" t="s">
         <v>68</v>
@@ -3163,9 +3250,9 @@
         <f>TINV(0.02, 35)</f>
         <v>2.4377225471437423</v>
       </c>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
       <c r="O7" s="1">
         <v>8.4</v>
       </c>
@@ -3178,10 +3265,10 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="30"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="1">
         <f>(EXP(2*E8)-1)/(EXP(2*E8)+1)</f>
         <v>0.2786971970352396</v>
@@ -3193,23 +3280,23 @@
         <f>0.5*LN((1+C6)/(1-C6))-(I8/SQRT('lab2 results'!L40-3))</f>
         <v>0.28626899913994547</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="37" t="s">
         <v>73</v>
       </c>
       <c r="G8" s="34">
         <v>0.98</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="36" t="s">
         <v>78</v>
       </c>
       <c r="I8" s="34">
         <v>2.33</v>
       </c>
-      <c r="J8" s="32" t="s">
+      <c r="J8" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
       <c r="O8" s="1">
         <v>8.1999999999999993</v>
       </c>
@@ -3222,10 +3309,10 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="30"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="1">
         <f>(EXP(2*E9)-1)/(EXP(2*E9)+1)</f>
         <v>0.79521231427662864</v>
@@ -3237,13 +3324,13 @@
         <f>0.5*LN((1+C6)/(1-C6))+(I8/SQRT('lab2 results'!L40-3))</f>
         <v>1.0854524059040367</v>
       </c>
-      <c r="F9" s="30"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="34"/>
-      <c r="H9" s="30"/>
+      <c r="H9" s="36"/>
       <c r="I9" s="34"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
       <c r="O9" s="1">
         <v>8.1999999999999993</v>
       </c>
@@ -3255,26 +3342,36 @@
         <v>8.1800133785656257</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
+    <row r="10" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="28"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="20">
         <f>G2^2*(1-C6^2)</f>
         <v>0.17889068962889984</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="20">
+        <f>SQRT(C10)</f>
+        <v>0.42295471344920588</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="20">
+        <f>0.67 * G2</f>
+        <v>0.35268533249139439</v>
+      </c>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
-      <c r="J10" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
+      <c r="J10" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
       <c r="O10" s="1">
         <v>9</v>
       </c>
@@ -3287,23 +3384,23 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="31.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="28"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="20">
         <f>J2/C2^2</f>
         <v>0.56672559606287909</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" s="20">
         <f>SQRT(C10)/(C2*SQRT('lab2 results'!L40-2))</f>
         <v>0.12929220263724112</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G11" s="20">
         <f>C11/E11</f>
@@ -3315,11 +3412,11 @@
       <c r="I11" s="17">
         <v>2.44</v>
       </c>
-      <c r="J11" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
+      <c r="J11" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" s="31"/>
+      <c r="L11" s="32"/>
       <c r="O11" s="1">
         <v>9</v>
       </c>
@@ -3332,23 +3429,23 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="28"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="20">
         <f>'lab2 results'!F45-'lab2 results'!E45*C11</f>
         <v>3.5328634908500174</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E12" s="20">
         <f>(SQRT(C10)/SQRT('lab2 results'!L40-2))*SQRT(1+('lab2 results'!E45^2/C2^2))</f>
         <v>1.0333193806032008</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G12" s="20">
         <f>C12/E12</f>
@@ -3360,11 +3457,11 @@
       <c r="I12" s="17">
         <v>2.44</v>
       </c>
-      <c r="J12" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
+      <c r="J12" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="K12" s="31"/>
+      <c r="L12" s="32"/>
       <c r="O12" s="1">
         <v>8.6</v>
       </c>
@@ -3377,20 +3474,20 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="44"/>
+      <c r="A13" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="41"/>
       <c r="O13" s="1">
         <v>8.8000000000000007</v>
       </c>
@@ -3403,18 +3500,18 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="48"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="50"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="58"/>
       <c r="O14" s="1">
         <v>8.5</v>
       </c>
@@ -3427,18 +3524,18 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="44"/>
       <c r="O15" s="1">
         <v>8.1999999999999993</v>
       </c>
@@ -3475,10 +3572,10 @@
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="E17" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="F17" s="41"/>
+      <c r="E17" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="46"/>
       <c r="O17" s="1">
         <v>7.8</v>
       </c>
@@ -3491,7 +3588,7 @@
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="D18" s="53" t="s">
+      <c r="D18" s="22" t="s">
         <v>85</v>
       </c>
       <c r="E18" s="14">
@@ -3516,8 +3613,8 @@
       </c>
     </row>
     <row r="19" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D19" s="54" t="s">
-        <v>88</v>
+      <c r="D19" s="23" t="s">
+        <v>87</v>
       </c>
       <c r="E19" s="1">
         <v>0.12929220263724109</v>
@@ -3526,7 +3623,7 @@
         <v>1.0333193806032006</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O19" s="1">
         <v>7.7</v>
@@ -3540,8 +3637,8 @@
       </c>
     </row>
     <row r="20" spans="2:17" ht="16.8" x14ac:dyDescent="0.35">
-      <c r="D20" s="53" t="s">
-        <v>99</v>
+      <c r="D20" s="22" t="s">
+        <v>98</v>
       </c>
       <c r="E20" s="1">
         <v>0.35440144961785258</v>
@@ -3549,8 +3646,8 @@
       <c r="F20" s="1">
         <v>0.43487126227258477</v>
       </c>
-      <c r="G20" s="57" t="s">
-        <v>106</v>
+      <c r="G20" s="24" t="s">
+        <v>105</v>
       </c>
       <c r="O20" s="1">
         <v>7.8</v>
@@ -3564,8 +3661,8 @@
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="D21" s="53" t="s">
-        <v>100</v>
+      <c r="D21" s="22" t="s">
+        <v>99</v>
       </c>
       <c r="E21" s="1">
         <v>19.213256797560252</v>
@@ -3574,7 +3671,7 @@
         <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O21" s="1">
         <v>7.2</v>
@@ -3588,10 +3685,10 @@
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="53" t="s">
-        <v>101</v>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22" t="s">
+        <v>100</v>
       </c>
       <c r="E22" s="1">
         <v>3.6334769161631408</v>
@@ -3600,7 +3697,7 @@
         <v>6.6189555162692928</v>
       </c>
       <c r="G22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O22" s="1">
         <v>7.2</v>
@@ -3747,10 +3844,10 @@
     </row>
     <row r="34" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J34" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="K34" s="15" t="s">
         <v>94</v>
-      </c>
-      <c r="K34" s="15" t="s">
-        <v>95</v>
       </c>
       <c r="O34" s="1">
         <v>7.6</v>
@@ -3844,21 +3941,23 @@
     <sortCondition ref="R3"/>
   </sortState>
   <mergeCells count="39">
-    <mergeCell ref="A13:L14"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="J8:L9"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="A13:L15"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D5:I5"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="J6:L7"/>
     <mergeCell ref="J5:L5"/>
@@ -3868,21 +3967,19 @@
     <mergeCell ref="A4:L4"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="J11:L11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
     <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3917,76 +4014,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="21" t="s">
+      <c r="O1" s="55"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="T1" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="U1" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="V1" s="28" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="16.8" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
       <c r="K2" s="3" t="s">
         <v>20</v>
       </c>
@@ -4005,12 +4102,12 @@
       <c r="P2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -6524,17 +6621,17 @@
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A43" s="51"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
+      <c r="A43" s="59"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="59"/>
       <c r="E43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
     </row>
     <row r="44" spans="1:22" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
       <c r="D44" s="6" t="s">
         <v>26</v>
       </c>
@@ -6544,25 +6641,25 @@
       <c r="F44" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G44" s="39" t="s">
+      <c r="G44" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="41"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="46"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="21" t="s">
+      <c r="M44" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="28"/>
     </row>
     <row r="45" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="35" t="s">
+      <c r="A45" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="51"/>
       <c r="D45" s="34">
         <f>SUMPRODUCT(K3:K19,H3:H19)/K40</f>
         <v>8.1810810810810803</v>
@@ -6575,12 +6672,12 @@
         <f>SUMPRODUCT(M3:M22,J3:J22)/M40</f>
         <v>8.0513513513513519</v>
       </c>
-      <c r="G45" s="36" t="s">
+      <c r="G45" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="38"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="54"/>
       <c r="L45" s="1"/>
       <c r="M45" s="6" t="s">
         <v>26</v>
@@ -6593,16 +6690,16 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A46" s="35"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
+      <c r="A46" s="51"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="51"/>
       <c r="D46" s="34"/>
       <c r="E46" s="34"/>
       <c r="F46" s="34"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="38"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="54"/>
       <c r="L46" s="9" t="s">
         <v>39</v>
       </c>
@@ -6617,11 +6714,11 @@
       </c>
     </row>
     <row r="47" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="35" t="s">
+      <c r="A47" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="51"/>
       <c r="D47" s="34">
         <f>SUMPRODUCT(H3:H19-D45, H3:H19-D45, K3:K19)/K40</f>
         <v>0.43937180423666905</v>
@@ -6634,12 +6731,12 @@
         <f>SUMPRODUCT(J3:J22-F45, J3:J22-F45, M3:M22)/M40</f>
         <v>0.2770927684441199</v>
       </c>
-      <c r="G47" s="36" t="s">
+      <c r="G47" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="38"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="54"/>
       <c r="L47" s="9" t="s">
         <v>40</v>
       </c>
@@ -6654,16 +6751,16 @@
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A48" s="35"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
+      <c r="A48" s="51"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="51"/>
       <c r="D48" s="34"/>
       <c r="E48" s="34"/>
       <c r="F48" s="34"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="38"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="54"/>
       <c r="L48" s="9" t="s">
         <v>41</v>
       </c>
@@ -6678,11 +6775,11 @@
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A49" s="35" t="s">
+      <c r="A49" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="51"/>
       <c r="D49" s="11">
         <f>SUMPRODUCT(H3:H19-D45, H3:H19-D45, K3:K19)/(K40-1)</f>
         <v>0.45157657657657652</v>
@@ -6695,10 +6792,10 @@
         <f>SUMPRODUCT(J3:J22-F45, J3:J22-F45, M3:M22)/(M40-1)</f>
         <v>0.28478978978978986</v>
       </c>
-      <c r="G49" s="36"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="38"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="54"/>
       <c r="L49" s="9" t="s">
         <v>42</v>
       </c>
@@ -6713,11 +6810,11 @@
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A50" s="35" t="s">
+      <c r="A50" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="51"/>
       <c r="D50" s="10">
         <f>SQRT(D47)</f>
         <v>0.6628512685638227</v>
@@ -6730,10 +6827,10 @@
         <f>SQRT(F47)</f>
         <v>0.5263960186438722</v>
       </c>
-      <c r="G50" s="36"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="38"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="53"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="54"/>
       <c r="L50" s="9" t="s">
         <v>43</v>
       </c>
@@ -6748,11 +6845,11 @@
       </c>
     </row>
     <row r="51" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="35" t="s">
+      <c r="A51" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="51"/>
       <c r="D51" s="34">
         <f>D50/D45</f>
         <v>8.1022454366902683E-2</v>
@@ -6765,12 +6862,12 @@
         <f>F50/F45</f>
         <v>6.5379834474062676E-2</v>
       </c>
-      <c r="G51" s="36" t="s">
+      <c r="G51" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="H51" s="37"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="38"/>
+      <c r="H51" s="53"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="54"/>
       <c r="L51" s="9" t="s">
         <v>44</v>
       </c>
@@ -6785,16 +6882,16 @@
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A52" s="35"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="35"/>
+      <c r="A52" s="51"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="51"/>
       <c r="D52" s="34"/>
       <c r="E52" s="34"/>
       <c r="F52" s="34"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="38"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="53"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="54"/>
       <c r="L52" s="9" t="s">
         <v>45</v>
       </c>
@@ -6809,16 +6906,16 @@
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53" s="35"/>
-      <c r="B53" s="35"/>
-      <c r="C53" s="35"/>
+      <c r="A53" s="51"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="51"/>
       <c r="D53" s="34"/>
       <c r="E53" s="34"/>
       <c r="F53" s="34"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="38"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="53"/>
+      <c r="I53" s="53"/>
+      <c r="J53" s="54"/>
       <c r="L53" s="9" t="s">
         <v>46</v>
       </c>
@@ -6833,11 +6930,11 @@
       </c>
     </row>
     <row r="54" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="35" t="s">
+      <c r="A54" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="51"/>
       <c r="D54" s="34">
         <f>Q40/(K40*D50^3)</f>
         <v>-1.2619066541331863</v>
@@ -6850,12 +6947,12 @@
         <f>S40/(M40*F50^3)</f>
         <v>0.14240945598119886</v>
       </c>
-      <c r="G54" s="36" t="s">
+      <c r="G54" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="H54" s="37"/>
-      <c r="I54" s="37"/>
-      <c r="J54" s="38"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="54"/>
       <c r="L54" s="9" t="s">
         <v>47</v>
       </c>
@@ -6870,16 +6967,16 @@
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A55" s="35"/>
-      <c r="B55" s="35"/>
-      <c r="C55" s="35"/>
+      <c r="A55" s="51"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="51"/>
       <c r="D55" s="34"/>
       <c r="E55" s="34"/>
       <c r="F55" s="34"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="38"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="53"/>
+      <c r="I55" s="53"/>
+      <c r="J55" s="54"/>
       <c r="L55" s="9" t="s">
         <v>48</v>
       </c>
@@ -6894,16 +6991,16 @@
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A56" s="35"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
+      <c r="A56" s="51"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="51"/>
       <c r="D56" s="34"/>
       <c r="E56" s="34"/>
       <c r="F56" s="34"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="38"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="54"/>
       <c r="L56" s="9" t="s">
         <v>49</v>
       </c>
@@ -6918,16 +7015,16 @@
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A57" s="35"/>
-      <c r="B57" s="35"/>
-      <c r="C57" s="35"/>
+      <c r="A57" s="51"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="51"/>
       <c r="D57" s="34"/>
       <c r="E57" s="34"/>
       <c r="F57" s="34"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="38"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="53"/>
+      <c r="I57" s="53"/>
+      <c r="J57" s="54"/>
       <c r="L57" s="9" t="s">
         <v>50</v>
       </c>
@@ -6942,11 +7039,11 @@
       </c>
     </row>
     <row r="58" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="35" t="s">
+      <c r="A58" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B58" s="35"/>
-      <c r="C58" s="35"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="51"/>
       <c r="D58" s="34">
         <f>T40/(K40*D47^2)-3</f>
         <v>1.4708680584490494</v>
@@ -6959,12 +7056,12 @@
         <f>V40/(M40*F47^2)-3</f>
         <v>-0.77126245071575994</v>
       </c>
-      <c r="G58" s="36" t="s">
+      <c r="G58" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="38"/>
+      <c r="H58" s="53"/>
+      <c r="I58" s="53"/>
+      <c r="J58" s="54"/>
       <c r="L58" s="9" t="s">
         <v>51</v>
       </c>
@@ -6979,115 +7076,115 @@
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A59" s="35"/>
-      <c r="B59" s="35"/>
-      <c r="C59" s="35"/>
+      <c r="A59" s="51"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="51"/>
       <c r="D59" s="34"/>
       <c r="E59" s="34"/>
       <c r="F59" s="34"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="37"/>
-      <c r="I59" s="37"/>
-      <c r="J59" s="38"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="53"/>
+      <c r="I59" s="53"/>
+      <c r="J59" s="54"/>
     </row>
     <row r="60" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="35"/>
-      <c r="B60" s="35"/>
-      <c r="C60" s="35"/>
+      <c r="A60" s="51"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="51"/>
       <c r="D60" s="34"/>
       <c r="E60" s="34"/>
       <c r="F60" s="34"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="38"/>
-      <c r="L60" s="42" t="s">
+      <c r="G60" s="52"/>
+      <c r="H60" s="53"/>
+      <c r="I60" s="53"/>
+      <c r="J60" s="54"/>
+      <c r="L60" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="M60" s="43"/>
-      <c r="N60" s="43"/>
-      <c r="O60" s="44"/>
+      <c r="M60" s="40"/>
+      <c r="N60" s="40"/>
+      <c r="O60" s="41"/>
       <c r="P60" s="12"/>
       <c r="Q60" s="12"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A61" s="35"/>
-      <c r="B61" s="35"/>
-      <c r="C61" s="35"/>
+      <c r="A61" s="51"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="51"/>
       <c r="D61" s="34"/>
       <c r="E61" s="34"/>
       <c r="F61" s="34"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="38"/>
-      <c r="L61" s="45"/>
-      <c r="M61" s="46"/>
-      <c r="N61" s="46"/>
-      <c r="O61" s="47"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="53"/>
+      <c r="I61" s="53"/>
+      <c r="J61" s="54"/>
+      <c r="L61" s="56"/>
+      <c r="M61" s="57"/>
+      <c r="N61" s="57"/>
+      <c r="O61" s="58"/>
       <c r="P61" s="12"/>
       <c r="Q61" s="12"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A62" s="35"/>
-      <c r="B62" s="35"/>
-      <c r="C62" s="35"/>
+      <c r="A62" s="51"/>
+      <c r="B62" s="51"/>
+      <c r="C62" s="51"/>
       <c r="D62" s="34"/>
       <c r="E62" s="34"/>
       <c r="F62" s="34"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="37"/>
-      <c r="I62" s="37"/>
-      <c r="J62" s="38"/>
-      <c r="L62" s="45"/>
-      <c r="M62" s="46"/>
-      <c r="N62" s="46"/>
-      <c r="O62" s="47"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="53"/>
+      <c r="I62" s="53"/>
+      <c r="J62" s="54"/>
+      <c r="L62" s="56"/>
+      <c r="M62" s="57"/>
+      <c r="N62" s="57"/>
+      <c r="O62" s="58"/>
       <c r="P62" s="12"/>
       <c r="Q62" s="12"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A63" s="35"/>
-      <c r="B63" s="35"/>
-      <c r="C63" s="35"/>
+      <c r="A63" s="51"/>
+      <c r="B63" s="51"/>
+      <c r="C63" s="51"/>
       <c r="D63" s="34"/>
       <c r="E63" s="34"/>
       <c r="F63" s="34"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="37"/>
-      <c r="I63" s="37"/>
-      <c r="J63" s="38"/>
-      <c r="L63" s="45"/>
-      <c r="M63" s="46"/>
-      <c r="N63" s="46"/>
-      <c r="O63" s="47"/>
+      <c r="G63" s="52"/>
+      <c r="H63" s="53"/>
+      <c r="I63" s="53"/>
+      <c r="J63" s="54"/>
+      <c r="L63" s="56"/>
+      <c r="M63" s="57"/>
+      <c r="N63" s="57"/>
+      <c r="O63" s="58"/>
       <c r="P63" s="12"/>
       <c r="Q63" s="12"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A64" s="35"/>
-      <c r="B64" s="35"/>
-      <c r="C64" s="35"/>
+      <c r="A64" s="51"/>
+      <c r="B64" s="51"/>
+      <c r="C64" s="51"/>
       <c r="D64" s="34"/>
       <c r="E64" s="34"/>
       <c r="F64" s="34"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="37"/>
-      <c r="J64" s="38"/>
-      <c r="L64" s="45"/>
-      <c r="M64" s="46"/>
-      <c r="N64" s="46"/>
-      <c r="O64" s="47"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="53"/>
+      <c r="I64" s="53"/>
+      <c r="J64" s="54"/>
+      <c r="L64" s="56"/>
+      <c r="M64" s="57"/>
+      <c r="N64" s="57"/>
+      <c r="O64" s="58"/>
       <c r="P64" s="12"/>
       <c r="Q64" s="12"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A65" s="35" t="s">
+      <c r="A65" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="B65" s="35"/>
-      <c r="C65" s="35"/>
+      <c r="B65" s="51"/>
+      <c r="C65" s="51"/>
       <c r="D65" s="34">
         <f>H12</f>
         <v>8.3000000000000007</v>
@@ -7100,97 +7197,97 @@
         <f>J11&amp;", "&amp;J13&amp;", "&amp;J17</f>
         <v>7.9, 8.1, 8.5</v>
       </c>
-      <c r="G65" s="36" t="s">
+      <c r="G65" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="38"/>
-      <c r="L65" s="45"/>
-      <c r="M65" s="46"/>
-      <c r="N65" s="46"/>
-      <c r="O65" s="47"/>
+      <c r="H65" s="53"/>
+      <c r="I65" s="53"/>
+      <c r="J65" s="54"/>
+      <c r="L65" s="56"/>
+      <c r="M65" s="57"/>
+      <c r="N65" s="57"/>
+      <c r="O65" s="58"/>
       <c r="P65" s="12"/>
       <c r="Q65" s="12"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A66" s="35"/>
-      <c r="B66" s="35"/>
-      <c r="C66" s="35"/>
+      <c r="A66" s="51"/>
+      <c r="B66" s="51"/>
+      <c r="C66" s="51"/>
       <c r="D66" s="34"/>
       <c r="E66" s="34"/>
       <c r="F66" s="34"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="38"/>
-      <c r="L66" s="48"/>
-      <c r="M66" s="49"/>
-      <c r="N66" s="49"/>
-      <c r="O66" s="50"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="53"/>
+      <c r="I66" s="53"/>
+      <c r="J66" s="54"/>
+      <c r="L66" s="42"/>
+      <c r="M66" s="43"/>
+      <c r="N66" s="43"/>
+      <c r="O66" s="44"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A67" s="35"/>
-      <c r="B67" s="35"/>
-      <c r="C67" s="35"/>
+      <c r="A67" s="51"/>
+      <c r="B67" s="51"/>
+      <c r="C67" s="51"/>
       <c r="D67" s="34"/>
       <c r="E67" s="34"/>
       <c r="F67" s="34"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="38"/>
+      <c r="G67" s="52"/>
+      <c r="H67" s="53"/>
+      <c r="I67" s="53"/>
+      <c r="J67" s="54"/>
       <c r="L67" s="12"/>
       <c r="M67" s="12"/>
       <c r="N67" s="12"/>
       <c r="O67" s="12"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A68" s="35"/>
-      <c r="B68" s="35"/>
-      <c r="C68" s="35"/>
+      <c r="A68" s="51"/>
+      <c r="B68" s="51"/>
+      <c r="C68" s="51"/>
       <c r="D68" s="34"/>
       <c r="E68" s="34"/>
       <c r="F68" s="34"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="37"/>
-      <c r="I68" s="37"/>
-      <c r="J68" s="38"/>
+      <c r="G68" s="52"/>
+      <c r="H68" s="53"/>
+      <c r="I68" s="53"/>
+      <c r="J68" s="54"/>
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A69" s="35"/>
-      <c r="B69" s="35"/>
-      <c r="C69" s="35"/>
+      <c r="A69" s="51"/>
+      <c r="B69" s="51"/>
+      <c r="C69" s="51"/>
       <c r="D69" s="34"/>
       <c r="E69" s="34"/>
       <c r="F69" s="34"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="37"/>
-      <c r="I69" s="37"/>
-      <c r="J69" s="38"/>
+      <c r="G69" s="52"/>
+      <c r="H69" s="53"/>
+      <c r="I69" s="53"/>
+      <c r="J69" s="54"/>
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A70" s="35"/>
-      <c r="B70" s="35"/>
-      <c r="C70" s="35"/>
+      <c r="A70" s="51"/>
+      <c r="B70" s="51"/>
+      <c r="C70" s="51"/>
       <c r="D70" s="34"/>
       <c r="E70" s="34"/>
       <c r="F70" s="34"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="37"/>
-      <c r="I70" s="37"/>
-      <c r="J70" s="38"/>
+      <c r="G70" s="52"/>
+      <c r="H70" s="53"/>
+      <c r="I70" s="53"/>
+      <c r="J70" s="54"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A71" s="35" t="s">
+      <c r="A71" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B71" s="35"/>
-      <c r="C71" s="35"/>
+      <c r="B71" s="51"/>
+      <c r="C71" s="51"/>
       <c r="D71" s="10">
         <f>E21</f>
         <v>8.3000000000000007</v>
@@ -7203,12 +7300,12 @@
         <f>G21</f>
         <v>8</v>
       </c>
-      <c r="G71" s="36" t="s">
+      <c r="G71" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="H71" s="37"/>
-      <c r="I71" s="37"/>
-      <c r="J71" s="38"/>
+      <c r="H71" s="53"/>
+      <c r="I71" s="53"/>
+      <c r="J71" s="54"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="F73" s="8"/>
